--- a/KiCad/PicoMIDIcontroller/PicoMIDIcontroller_BOM.xlsx
+++ b/KiCad/PicoMIDIcontroller/PicoMIDIcontroller_BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Reference</t>
   </si>
@@ -94,9 +94,6 @@
     <t>U1,U2,U3</t>
   </si>
   <si>
-    <t>CD74HC4067SM</t>
-  </si>
-  <si>
     <t>http://www.ti.com/lit/ds/symlink/cd74hc4067.pdf</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>EC11E-Switch_Vertical</t>
   </si>
   <si>
-    <t>SSOP-24_5.3x8.2mm</t>
-  </si>
-  <si>
     <t>1x04_P2.54mm_Vertical</t>
   </si>
   <si>
@@ -137,6 +131,45 @@
   </si>
   <si>
     <t>Pico,Pico W, Pico2, Pico 2W</t>
+  </si>
+  <si>
+    <t>CD74HC4067PWR</t>
+  </si>
+  <si>
+    <t>24-TSSOP  7.8mm × 6.4mm</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/PEC11R.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/bourns-inc/PEC11R-4220F-S0024/4499660?s=N4IgTCBcDaIAoFEDCBGFAlAtAFjGADAGKYDK%2B%2BY2IAugL5A</t>
+  </si>
+  <si>
+    <t>PEC11R-4020F-S0024 - no detents, PEC11R-4220F-S0024 24 detents. Very cheap on Aliexpress</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005005193716172.html?spm=a2g0o.order_list.order_list_main.35.1c7f1802zXwIW6</t>
+  </si>
+  <si>
+    <t>best price is  on Aliexpress</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/CD74HC4067PWR/26639687</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32672229793.html?spm=a2g0o.order_list.order_list_main.110.1c7f1802zXwIW6</t>
+  </si>
+  <si>
+    <t>available on Amazon as well</t>
+  </si>
+  <si>
+    <t>SMT, 3 leads on one side, one on the other</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005010770707376.html?spm=a2g0o.productlist.main.15.2cf52792V8T1pB&amp;algo_pvid=0480e7b6-5b8b-4f6e-9e28-e8d978d0faae&amp;algo_exp_id=0480e7b6-5b8b-4f6e-9e28-e8d978d0faae-14&amp;pdp_ext_f=%7B%22order%22%3A%221%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;pdp_npi=6%40dis%21CAD%2110.23%214.50%21%21%2150.12%2122.05%21%402101e07217686717186057386eff0f%2112000053456285150%21sea%21CA%21717068514%21X%211%210%21n_tag%3A-29919%3Bd%3Abe1153aa%3Bm03_new_user%3A-29895&amp;curPageLogUid=zL5tGp3dUZi3&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005010770707376%7C_p_origin_prod%3A</t>
+  </si>
+  <si>
+    <t>make sure you use the "S" pinout</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1011,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,8 +1019,8 @@
     <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1005,10 +1038,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1025,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -1042,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1066,10 +1099,14 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1126,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -1106,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1123,7 +1163,13 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -1140,7 +1186,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1157,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -1174,12 +1220,16 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1195,30 +1245,40 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>